--- a/input.xlsx
+++ b/input.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -10,7 +10,7 @@
     <sheet name="dotnet" sheetId="1" r:id="rId1"/>
     <sheet name="angular" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,34 +28,34 @@
     <t>Destination_Path</t>
   </si>
   <si>
-    <t>D:\\Git\\demo</t>
-  </si>
-  <si>
-    <t>D:\\publish</t>
-  </si>
-  <si>
     <t>https://github.com/MiracleAdvanceTechnologies/petmatrix-backend-kku.git</t>
   </si>
   <si>
     <t>Backup_Path</t>
   </si>
   <si>
-    <t>D:\\Git\\demo\\petmatrix-backend-kku\\PetMatrix.API\\bin\\Debug\\netcoreapp2.1\\publish</t>
-  </si>
-  <si>
     <t>Published_File_Path</t>
   </si>
   <si>
     <t>Github_Link</t>
   </si>
   <si>
-    <t>D:\\Backup\\FileNam</t>
+    <t>G:\\publish</t>
+  </si>
+  <si>
+    <t>G:\\Git\\demo</t>
+  </si>
+  <si>
+    <t>G:\\Git\\demo\\petmatrix-backend-kku\\PetMatrix.API\\bin\\Debug\\netcoreapp2.1\\publish</t>
+  </si>
+  <si>
+    <t>G:\\Backup\\FileNa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -381,8 +381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,34 +397,34 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>

--- a/input.xlsx
+++ b/input.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dotnet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Clone_Path</t>
   </si>
@@ -40,22 +40,22 @@
     <t>Github_Link</t>
   </si>
   <si>
-    <t>G:\\publish</t>
-  </si>
-  <si>
-    <t>G:\\Git\\demo</t>
-  </si>
-  <si>
-    <t>G:\\Git\\demo\\petmatrix-backend-kku\\PetMatrix.API\\bin\\Debug\\netcoreapp2.1\\publish</t>
-  </si>
-  <si>
-    <t>G:\\Backup\\FileNa</t>
+    <t>D:\\Git\\demo</t>
+  </si>
+  <si>
+    <t>D:\\Git\\demo\\petmatrix-backend-kku\\PetMatrix.API\\bin\\Debug\\netcoreapp2.1\\publish</t>
+  </si>
+  <si>
+    <t>D:\\publish</t>
+  </si>
+  <si>
+    <t>D:\\Backup\\FileNa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -381,8 +381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,13 +418,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -441,12 +441,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="71" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="87.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="dotnet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>Clone_Path</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>D:\\Backup\\FileNa</t>
+  </si>
+  <si>
+    <t>D:\\Backup\\FileName</t>
   </si>
 </sst>
 </file>
@@ -381,8 +384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:E2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,7 +430,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -443,7 +446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/input.xlsx
+++ b/input.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Clone_Path</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>D:\\Backup\\FileName</t>
+  </si>
+  <si>
+    <t>D:\\Git\\demo\\petmatrix-backend-kku\\PetMatrix.API\\bin\\Release\\netcoreapp2.1\\publish</t>
+  </si>
+  <si>
+    <t>D:\Publish Files\PetMatrix\PetMatrixBackend</t>
   </si>
 </sst>
 </file>
@@ -385,7 +391,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,7 +399,7 @@
     <col min="1" max="1" width="75" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="89.5703125" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="47.140625" customWidth="1"/>
     <col min="5" max="5" width="24.28515625" customWidth="1"/>
     <col min="6" max="6" width="20.5703125" customWidth="1"/>
   </cols>
@@ -424,10 +430,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>

--- a/input.xlsx
+++ b/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dotnet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Clone_Path</t>
   </si>
@@ -52,13 +52,22 @@
     <t>D:\\Backup\\FileNa</t>
   </si>
   <si>
-    <t>D:\\Backup\\FileName</t>
-  </si>
-  <si>
-    <t>D:\\Git\\demo\\petmatrix-backend-kku\\PetMatrix.API\\bin\\Release\\netcoreapp2.1\\publish</t>
-  </si>
-  <si>
-    <t>D:\Publish Files\PetMatrix\PetMatrixBackend</t>
+    <t>D:\\PetmatrixDevopsClone</t>
+  </si>
+  <si>
+    <t>D:\\PetMatrixDevops\\PetmatrixBackend</t>
+  </si>
+  <si>
+    <t>D:\\PetMatrixDevopsBackup\\second</t>
+  </si>
+  <si>
+    <t>D:\\PetmatrixDevopsClone\\petmatrix-backend-kku\\PetMatrix.API\\bin\\Debug\\netcoreapp2.1\\publish</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>release</t>
   </si>
 </sst>
 </file>
@@ -390,17 +399,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="75" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="89.5703125" customWidth="1"/>
+    <col min="1" max="1" width="69.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="99.140625" customWidth="1"/>
     <col min="4" max="4" width="47.140625" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="50" customWidth="1"/>
     <col min="6" max="6" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -420,23 +429,28 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
+      <c r="F2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -450,10 +464,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,7 +479,7 @@
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -481,8 +495,11 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -497,6 +514,9 @@
       </c>
       <c r="E2" t="s">
         <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
